--- a/biology/Botanique/Iris_pontica/Iris_pontica.xlsx
+++ b/biology/Botanique/Iris_pontica/Iris_pontica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Iris de la Mer Noire (Iris pontica) est une plante herbacée vivace de la famille des Iridacées originaire de Roumanie, d'Europe de l'Est et de Russie.
 Nom russe : Ирис понтийский ou Ирис черноморский
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un iris à rhizome.
 La floraison a lieu d'avril à mai. La fleur, lavande ou bleu foncé, comporte trois grands sépales à crête jaune et trois pétales de plus petite taille.
@@ -544,18 +558,20 @@
           <t>Position taxonomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été déplacée en 2005 par Georgi Ivanovich Rodionenko dans le genre Xyridion :
 Xyridion ponticum (Zapał.) Rodion.
 En concordance avec les index GRIN (Germplasm Resources Information Network) et Tropicos (Jardin botanique du Missouri), l'espèce a été ici conservée dans le genre Iris.
-Plusieurs synonymes sont signalés par les index Tropicos[1]  et GRIN :
-Iris humilis M.Bieb. (1808) - espèce homonyme de Iris humilis Georgi (1775)[2]
+Plusieurs synonymes sont signalés par les index Tropicos  et GRIN :
+Iris humilis M.Bieb. (1808) - espèce homonyme de Iris humilis Georgi (1775)
 Iris humilis var. pontica Prod.
 Iris marschalliana Bobrov/
 Limniris humilis (M.Bieb.) Fuss
 Neubeckia humilis (M.Bieb.) Alef.
-À noter la position d'Alexeï Vvedenski qui appelle cette espèce Iris humilis M.Bieb., au nom de l'antériorité mais ne levant pas en cela l'homonymie avec Iris humilis Georgi[3].
+À noter la position d'Alexeï Vvedenski qui appelle cette espèce Iris humilis M.Bieb., au nom de l'antériorité mais ne levant pas en cela l'homonymie avec Iris humilis Georgi.
 </t>
         </is>
       </c>
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette belle espèce d'iris est originaire de Roumanie, d'Europe de l'Est et de Russie.
 </t>
